--- a/DOC/NotationSaé.xlsx
+++ b/DOC/NotationSaé.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labauveg\source\repos\SAE_DEV_TEST\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C9B1B5-F697-4ADC-9C03-B1C81FBC0931}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB95BA56-4E58-4DDB-AE07-263ACD7C2BFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="JNcTaoBHhGav1iQpm+xFzSQYyCUQnHIABW6cDVXpzOkqeTamj08E8xeYs10YDNtaFxPQkN1Glvouzy3BQArkgQ==" workbookSaltValue="uLbNkXbSWSy11GYw+b70Fw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="6915" xr2:uid="{5D121593-54A3-4842-9550-1D9438ECD38B}"/>
@@ -981,8 +981,8 @@
   </sheetPr>
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="73" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1177,11 +1177,13 @@
       <c r="C12" s="9">
         <v>1</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="27">
+        <v>100</v>
+      </c>
       <c r="E12" s="45"/>
       <c r="F12" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="18">
         <f t="shared" si="1"/>
@@ -1198,12 +1200,12 @@
         <v>5</v>
       </c>
       <c r="D13" s="27">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E13" s="45"/>
       <c r="F13" s="18">
         <f t="shared" ref="F13:F16" si="2">D13*C13/100</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="G13" s="18">
         <f t="shared" ref="G13:G16" si="3">E13*C13/100</f>
@@ -1246,7 +1248,7 @@
       <c r="E15" s="45"/>
       <c r="F15" s="18">
         <f>SUM(F6:F14)</f>
-        <v>9</v>
+        <v>11.25</v>
       </c>
       <c r="G15" s="18">
         <f>SUM(G6:G14)</f>
@@ -1303,7 +1305,7 @@
       <c r="E18" s="45"/>
       <c r="F18" s="25">
         <f>F15+F16-F17</f>
-        <v>11</v>
+        <v>13.25</v>
       </c>
       <c r="G18" s="25">
         <f>G15+G16-G17</f>
@@ -1340,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19A87AB-8B93-4DD4-A117-0662B428885D}">
   <dimension ref="A1:XFD15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="61" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A4" zoomScale="61" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17782,12 +17784,12 @@
         <v>1</v>
       </c>
       <c r="D5" s="27">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="18">
         <f t="shared" ref="F5:F11" si="0">D5*C5/100</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G5" s="18">
         <f>E5*C5/100</f>
@@ -17827,11 +17829,13 @@
       <c r="C7" s="18">
         <v>5</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="27">
+        <v>100</v>
+      </c>
       <c r="E7" s="45"/>
       <c r="F7" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7" s="18">
         <f t="shared" si="1"/>
@@ -17894,12 +17898,12 @@
         <v>3</v>
       </c>
       <c r="D10" s="27">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E10" s="45"/>
       <c r="F10" s="18">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="G10" s="18">
         <f t="shared" si="1"/>
@@ -17942,7 +17946,7 @@
       <c r="E12" s="46"/>
       <c r="F12" s="16">
         <f>SUM(F5:F11)</f>
-        <v>11.25</v>
+        <v>17.25</v>
       </c>
       <c r="G12" s="16">
         <f>SUM(G5:G11)</f>
@@ -17995,7 +17999,7 @@
       <c r="E15" s="45"/>
       <c r="F15" s="25">
         <f>F12+F13-F14</f>
-        <v>11.25</v>
+        <v>17.25</v>
       </c>
       <c r="G15" s="18">
         <f>G12+G13-G14</f>

--- a/DOC/NotationSaé.xlsx
+++ b/DOC/NotationSaé.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labauveg\source\repos\SAE_DEV_TEST\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB95BA56-4E58-4DDB-AE07-263ACD7C2BFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A197F59-6394-4815-8D39-074210705BD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="JNcTaoBHhGav1iQpm+xFzSQYyCUQnHIABW6cDVXpzOkqeTamj08E8xeYs10YDNtaFxPQkN1Glvouzy3BQArkgQ==" workbookSaltValue="uLbNkXbSWSy11GYw+b70Fw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="6915" xr2:uid="{5D121593-54A3-4842-9550-1D9438ECD38B}"/>
@@ -981,8 +981,8 @@
   </sheetPr>
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="73" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1045,11 +1045,13 @@
       <c r="C6" s="28">
         <v>3</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="27">
+        <v>50</v>
+      </c>
       <c r="E6" s="45"/>
       <c r="F6" s="18">
         <f t="shared" ref="F6:F12" si="0">D6*C6/100</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G6" s="18">
         <f>E6*C6/100</f>
@@ -1067,11 +1069,13 @@
       <c r="C7" s="28">
         <v>2</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="27">
+        <v>50</v>
+      </c>
       <c r="E7" s="45"/>
       <c r="F7" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="18">
         <f t="shared" ref="G7:G12" si="1">E7*C7/100</f>
@@ -1087,11 +1091,13 @@
       <c r="C8" s="9">
         <v>1</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="27">
+        <v>100</v>
+      </c>
       <c r="E8" s="45"/>
       <c r="F8" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="18">
         <f t="shared" si="1"/>
@@ -1248,7 +1254,7 @@
       <c r="E15" s="45"/>
       <c r="F15" s="18">
         <f>SUM(F6:F14)</f>
-        <v>11.25</v>
+        <v>14.75</v>
       </c>
       <c r="G15" s="18">
         <f>SUM(G6:G14)</f>
@@ -1305,7 +1311,7 @@
       <c r="E18" s="45"/>
       <c r="F18" s="25">
         <f>F15+F16-F17</f>
-        <v>13.25</v>
+        <v>16.75</v>
       </c>
       <c r="G18" s="25">
         <f>G15+G16-G17</f>
@@ -1342,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19A87AB-8B93-4DD4-A117-0662B428885D}">
   <dimension ref="A1:XFD15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="61" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A7" zoomScale="61" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17962,11 +17968,13 @@
       <c r="C13" s="22">
         <v>2</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="27">
+        <v>25</v>
+      </c>
       <c r="E13" s="47"/>
       <c r="F13" s="22">
         <f>D13*C13/100</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G13" s="22">
         <f>E13*C13/100</f>
@@ -17999,7 +18007,7 @@
       <c r="E15" s="45"/>
       <c r="F15" s="25">
         <f>F12+F13-F14</f>
-        <v>17.25</v>
+        <v>17.75</v>
       </c>
       <c r="G15" s="18">
         <f>G12+G13-G14</f>
@@ -18035,8 +18043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A455AA6B-8636-401C-8E5D-7A6A458CEC82}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18172,7 +18180,9 @@
       <c r="B11" s="34">
         <v>0.33300000000000002</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="44">
+        <v>0.33300000000000002</v>
+      </c>
       <c r="D11" s="37">
         <f>MIN(ROUND((C11-B11 + 1)*$B$6,1),20)</f>
         <v>0</v>
@@ -18189,7 +18199,9 @@
       <c r="B12" s="34">
         <v>0.33300000000000002</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="44">
+        <v>0.33300000000000002</v>
+      </c>
       <c r="D12" s="37">
         <f>MIN(ROUND((C12-B12 + 1)*$B$6,1),20)</f>
         <v>0</v>
@@ -18206,7 +18218,9 @@
       <c r="B13" s="34">
         <v>0.33300000000000002</v>
       </c>
-      <c r="C13" s="44"/>
+      <c r="C13" s="44">
+        <v>0.33300000000000002</v>
+      </c>
       <c r="D13" s="37">
         <f>MIN(ROUND((C13-B13 + 1)*$B$6,1),20)</f>
         <v>0</v>
@@ -18226,7 +18240,7 @@
       </c>
       <c r="C14" s="39">
         <f>ROUNDUP(SUM(C11:C13),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="40" t="s">
         <v>62</v>
